--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115417.7808986403</v>
+        <v>113936.7948335011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325126</v>
+        <v>23347074.56340345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.246650701</v>
+        <v>8645685.345390847</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4959819.136992628</v>
+        <v>5013817.615466122</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>203.1869771812474</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>20.97478045648731</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>151.7936689723505</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>396.7787713257347</v>
+        <v>65.83707489757897</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C7" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>373.3071698245765</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>29.26230950814955</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.47479140598085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="G13" t="n">
-        <v>99.63716128880068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.350305051013961</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>395.6590476213833</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.26230950814955</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>303.2656041540824</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.55673229496868</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>54.55340531488847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.91568880648689</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2324,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2333,10 +2335,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>1.826392573249387</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>193.1424077667635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>159.0870598415706</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>75.86622810093073</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>45.91568880648644</v>
+        <v>20.86004827018355</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2792,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>83.18350266509924</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>68.12206052868135</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3032,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3044,7 +3046,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>290.7014997425542</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>188.5328199757039</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>47.90525155920239</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>120.8505350686153</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.16791248334739</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>208.2631588479954</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3515,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>35.16791248334776</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>156.5225773297128</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.3964394189957</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>212.4124719248395</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>83.18350266509924</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>43.70143389869456</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>244.6903493140397</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>306.0087361885582</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>61.08641542222839</v>
       </c>
       <c r="T46" t="n">
-        <v>161.1544242256037</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C2" t="n">
-        <v>890.3927724551322</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4364,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4419,7 +4421,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.6920270441282</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C4" t="n">
-        <v>55.1303155273531</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="X4" t="n">
-        <v>646.930316449007</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="Y4" t="n">
-        <v>419.5106457631153</v>
+        <v>851.7801684713901</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.8110981924006</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G5" t="n">
         <v>33.94366860160834</v>
@@ -4601,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.396792377655</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="Y5" t="n">
-        <v>888.1106686773085</v>
+        <v>863.2089295691367</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.4973157021125</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4726,22 +4728,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4768,7 +4770,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.4973157021125</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4814,10 +4816,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1667.625541688347</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.77008709938</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>843.6276236786911</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4890,19 +4892,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4966,19 +4968,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -5005,7 +5007,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>435.3414999783445</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C11" t="n">
-        <v>435.3414999783445</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="D11" t="n">
-        <v>435.3414999783445</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E11" t="n">
-        <v>435.3414999783445</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F11" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5054,7 +5056,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5075,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>435.3414999783445</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5127,16 +5129,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M12" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N12" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646.930316449007</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C13" t="n">
-        <v>646.930316449007</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D13" t="n">
-        <v>481.0523236505297</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E13" t="n">
-        <v>311.294319901267</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F13" t="n">
-        <v>134.5872658630232</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5206,16 +5208,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M13" t="n">
-        <v>872.2064493144727</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5230,19 +5232,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.930316449007</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.52534286434</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5291,13 +5293,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q14" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5309,19 +5311,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1694.809384574343</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1694.809384574343</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1289.953929985376</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>870.8114665646866</v>
+        <v>1297.527826422454</v>
       </c>
       <c r="Y14" t="n">
-        <v>462.52534286434</v>
+        <v>889.2417027221078</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5366,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M15" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N15" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O15" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P15" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5443,7 +5445,7 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
         <v>1277.514180854636</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>435.3414999783445</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C17" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="D17" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E17" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F17" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y17" t="n">
-        <v>464.8993883704147</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L18" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M18" t="n">
-        <v>453.9965675465116</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="N18" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365.412936374258</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C19" t="n">
-        <v>365.412936374258</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D19" t="n">
-        <v>199.5349435757807</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E19" t="n">
-        <v>199.5349435757807</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F19" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M19" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X19" t="n">
-        <v>646.930316449007</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y19" t="n">
-        <v>419.5106457631153</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1416.332668825484</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C20" t="n">
-        <v>978.1901960089076</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D20" t="n">
-        <v>542.280411183352</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5056663416472</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M20" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.081325612185</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O20" t="n">
-        <v>1375.081325612185</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="X20" t="n">
-        <v>2250.918363010739</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y20" t="n">
-        <v>1842.632239310392</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M21" t="n">
-        <v>394.9608689238808</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N21" t="n">
-        <v>1055.800923465659</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="O21" t="n">
-        <v>1716.640978007438</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P21" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q21" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5935,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2513.567303138386</v>
+        <v>1758.980365494229</v>
       </c>
       <c r="C23" t="n">
-        <v>2075.424830321809</v>
+        <v>1320.837892677653</v>
       </c>
       <c r="D23" t="n">
-        <v>1639.515045496254</v>
+        <v>884.9281078520971</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.740300654549</v>
+        <v>884.9281078520971</v>
       </c>
       <c r="F23" t="n">
-        <v>777.8728710637567</v>
+        <v>457.0606782613049</v>
       </c>
       <c r="G23" t="n">
-        <v>376.4750396870206</v>
+        <v>55.66284688456875</v>
       </c>
       <c r="H23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K23" t="n">
-        <v>921.6951770884149</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L23" t="n">
-        <v>1996.755143341274</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M23" t="n">
-        <v>3077.648096827956</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N23" t="n">
-        <v>4158.541050314638</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O23" t="n">
-        <v>4367.244256511845</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4367.244256511845</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4367.244256511845</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>4367.244256511845</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V23" t="n">
-        <v>4172.150915333296</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W23" t="n">
-        <v>3767.295460744329</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X23" t="n">
-        <v>3348.15299732364</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y23" t="n">
-        <v>2939.866873623293</v>
+        <v>1758.980365494229</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.5166301215297</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>487.060168958172</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9698801047252</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>297.8494654316789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4656270478405</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0805373140244</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M24" t="n">
-        <v>1168.237838616919</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="N24" t="n">
-        <v>1750.584646609046</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1687.129209057429</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1556.950565388031</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1380.614018387999</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.496500449998</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>996.1737461831922</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>841.3063104220721</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.8205312012929</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1166.403045742118</v>
+        <v>954.7136726652279</v>
       </c>
       <c r="C25" t="n">
-        <v>993.8413342253433</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D25" t="n">
-        <v>827.963341426866</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E25" t="n">
-        <v>658.2053376776032</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F25" t="n">
-        <v>481.4982836393594</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G25" t="n">
-        <v>315.907008665187</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H25" t="n">
-        <v>176.0048343555616</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2704.004495033037</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T25" t="n">
-        <v>2458.125048611492</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U25" t="n">
-        <v>2179.692047864597</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V25" t="n">
-        <v>2103.059494227293</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W25" t="n">
-        <v>1831.033089813585</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X25" t="n">
-        <v>1585.641335146997</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y25" t="n">
-        <v>1358.221664461106</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.095648603258</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.953175786681</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194208</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L26" t="n">
-        <v>53.40121652862856</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="M26" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W26" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X26" t="n">
-        <v>2623.681342788512</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="Y26" t="n">
-        <v>2215.395219088166</v>
+        <v>1318.576262321712</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J27" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K27" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L27" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M27" t="n">
-        <v>277.7880908295411</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N27" t="n">
-        <v>938.6281453713194</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O27" t="n">
-        <v>1599.468199913098</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P27" t="n">
-        <v>1599.468199913098</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q27" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6409,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2489.401636434797</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U28" t="n">
-        <v>2356.071333755254</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1011.477214236518</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="C29" t="n">
-        <v>573.3347414199409</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="D29" t="n">
-        <v>137.4249565943854</v>
+        <v>983.8535531113089</v>
       </c>
       <c r="E29" t="n">
-        <v>53.40121652862856</v>
+        <v>550.078808269604</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>122.2113786788117</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M29" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N29" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6506,7 +6508,7 @@
         <v>1846.062908421772</v>
       </c>
       <c r="Y29" t="n">
-        <v>1437.776784721425</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N30" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O30" t="n">
-        <v>1375.081325612185</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P30" t="n">
-        <v>1716.640978007438</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q30" t="n">
         <v>1716.640978007438</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C31" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S31" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T31" t="n">
-        <v>2634.504334502149</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U31" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V31" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W31" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X31" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1754.583695154438</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C32" t="n">
-        <v>1316.441222337862</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D32" t="n">
-        <v>1316.441222337862</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E32" t="n">
-        <v>882.6664774961569</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F32" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L32" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M32" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N32" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.921380153963</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P32" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6731,19 +6733,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U32" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>1754.583695154438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X32" t="n">
-        <v>1754.583695154438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y32" t="n">
-        <v>1754.583695154438</v>
+        <v>2479.623634536778</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6773,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O33" t="n">
-        <v>397.8892067392439</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.8950539462408</v>
+        <v>1008.286808612828</v>
       </c>
       <c r="C34" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D34" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E34" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F34" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6898,10 +6900,10 @@
         <v>1427.525098017707</v>
       </c>
       <c r="X34" t="n">
-        <v>1182.13334335112</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y34" t="n">
-        <v>954.7136726652279</v>
+        <v>1200.105427331815</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1789.095648603258</v>
+        <v>892.9415207219413</v>
       </c>
       <c r="C35" t="n">
-        <v>1350.953175786681</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="D35" t="n">
-        <v>915.0433909611256</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E35" t="n">
-        <v>481.2686461194208</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O35" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6965,22 +6967,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W35" t="n">
-        <v>2670.060826431428</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X35" t="n">
-        <v>2250.918363010739</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="Y35" t="n">
-        <v>2215.395219088166</v>
+        <v>1015.012768265997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N36" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O36" t="n">
-        <v>397.8892067392439</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P36" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q36" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7120,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2510.819457729424</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2232.38645698253</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1945.43094885296</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1673.404544439252</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1789.095648603258</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C38" t="n">
-        <v>1350.953175786681</v>
+        <v>1386.476319709255</v>
       </c>
       <c r="D38" t="n">
-        <v>915.0433909611256</v>
+        <v>950.5665348836992</v>
       </c>
       <c r="E38" t="n">
-        <v>481.2686461194208</v>
+        <v>516.7917900419943</v>
       </c>
       <c r="F38" t="n">
-        <v>53.40121652862856</v>
+        <v>88.92436045120206</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2208.238112023947</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>2208.238112023947</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W38" t="n">
-        <v>2208.238112023947</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X38" t="n">
-        <v>1789.095648603258</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y38" t="n">
-        <v>1789.095648603258</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N39" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O39" t="n">
-        <v>714.2412710704069</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P39" t="n">
         <v>1175.902039375362</v>
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>966.5813843420327</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>794.0196728252577</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7357,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.5813843420327</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1011.477214236518</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C41" t="n">
-        <v>573.3347414199409</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D41" t="n">
-        <v>137.4249565943854</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E41" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M41" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N41" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O41" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W41" t="n">
-        <v>2265.205371842461</v>
+        <v>1785.915842032517</v>
       </c>
       <c r="X41" t="n">
-        <v>1846.062908421772</v>
+        <v>1366.773378611828</v>
       </c>
       <c r="Y41" t="n">
-        <v>1437.776784721425</v>
+        <v>958.4872549114813</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L42" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M42" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N42" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O42" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P42" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q42" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R42" t="n">
         <v>1716.640978007438</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C43" t="n">
-        <v>590.3333424294657</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D43" t="n">
-        <v>424.4553496309884</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E43" t="n">
-        <v>254.6973458817257</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F43" t="n">
-        <v>77.99029184348186</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U43" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W43" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y43" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.52534286434</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C44" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D44" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E44" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F44" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V44" t="n">
-        <v>771.6250763881362</v>
+        <v>2223.792002549092</v>
       </c>
       <c r="W44" t="n">
-        <v>462.52534286434</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="X44" t="n">
-        <v>462.52534286434</v>
+        <v>1399.794084539436</v>
       </c>
       <c r="Y44" t="n">
-        <v>462.52534286434</v>
+        <v>991.5079608390889</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N45" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O45" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>593.9750599092082</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C46" t="n">
-        <v>593.9750599092082</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D46" t="n">
-        <v>428.0970671107308</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E46" t="n">
-        <v>428.0970671107308</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M46" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>2608.357376509985</v>
       </c>
       <c r="T46" t="n">
-        <v>1353.741993391257</v>
+        <v>2362.477930088441</v>
       </c>
       <c r="U46" t="n">
-        <v>1353.741993391257</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V46" t="n">
-        <v>1066.786485261687</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W46" t="n">
-        <v>1066.786485261687</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X46" t="n">
-        <v>821.3947305950999</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y46" t="n">
-        <v>593.9750599092082</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8137,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8374,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>424.2958575201044</v>
@@ -8553,7 +8555,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="O11" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8775,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N12" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8854,19 +8856,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>409.401749030468</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="O14" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N15" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9091,10 +9093,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N16" t="n">
-        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9173,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N18" t="n">
-        <v>288.7962490401609</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>312.7888501519116</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9407,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P20" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.515206607857</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O21" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N23" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>210.8113193911195</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1091.811064127961</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N24" t="n">
-        <v>588.2290989819469</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9878,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>200.3264657984394</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="N29" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>667.5152066078568</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P30" t="n">
-        <v>345.0097498941943</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10352,22 +10354,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>469.682203560008</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P33" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10595,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10829,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P39" t="n">
-        <v>466.3240083888435</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P41" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11142,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11385,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11461,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -11473,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.60968125113078</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22604,13 +22606,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>211.764061605235</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>143.2444324140052</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22753,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>117.5124713972208</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22841,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.17226746074766</v>
+        <v>349.1139638889034</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C7" t="n">
-        <v>14.56796726996961</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -22951,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>50.28158547030785</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>329.7284710573622</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23188,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>59.74677603861437</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.7284710573622</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23421,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G13" t="n">
-        <v>64.29820093562992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23551,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>254.2797746051393</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>19.29199116509909</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>392.7742652719091</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>130.4954439343285</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23744,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.3437002368286</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>36.89966627151447</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24032,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>284.4124604379665</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -24263,10 +24265,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>165.8483727987482</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>11.74903456003676</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.0353499799959</v>
+        <v>394.0909905162989</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>346.2534947281885</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>329.2617925342874</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24971,19 +24973,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>110.1054003005228</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>215.6704424876392</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>301.1860397114434</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25205,22 +25207,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>369.0353499799957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>34.67467827192624</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>362.215940579621</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>100.1075023264405</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.74903456003713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>209.6241028552191</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>346.2534947281885</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,10 +25681,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>124.3589898130756</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>177.346225466019</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>94.7981638545188</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.56253959275492</v>
       </c>
       <c r="T46" t="n">
-        <v>82.26622773172554</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348586.7789300132</v>
+        <v>348586.778930013</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348586.7789300131</v>
+        <v>348586.7789300132</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348586.7789300132</v>
+        <v>490377.2812639625</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680428.703201148</v>
+        <v>490377.2812639625</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490377.2812639624</v>
+        <v>490377.2812639626</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490377.2812639625</v>
+        <v>490377.2812639626</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490377.2812639625</v>
+        <v>490377.2812639626</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490377.2812639624</v>
+        <v>490377.2812639625</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490377.2812639625</v>
+        <v>490377.2812639626</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348586.7789300131</v>
+        <v>490377.2812639625</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>72121.40253724411</v>
       </c>
       <c r="C2" t="n">
-        <v>72121.4025372441</v>
+        <v>72121.40253724408</v>
       </c>
       <c r="D2" t="n">
-        <v>72121.4025372441</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="E2" t="n">
-        <v>72121.40253724408</v>
+        <v>72121.40253724412</v>
       </c>
       <c r="F2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="G2" t="n">
-        <v>72121.4025372441</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="H2" t="n">
         <v>101457.3685373715</v>
       </c>
       <c r="I2" t="n">
-        <v>140778.3523864443</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="J2" t="n">
-        <v>101457.3685373716</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="K2" t="n">
         <v>101457.3685373715</v>
@@ -26347,13 +26349,13 @@
         <v>101457.3685373715</v>
       </c>
       <c r="N2" t="n">
-        <v>101457.3685373715</v>
+        <v>101457.3685373716</v>
       </c>
       <c r="O2" t="n">
-        <v>101457.3685373715</v>
+        <v>101457.3685373716</v>
       </c>
       <c r="P2" t="n">
-        <v>72121.4025372441</v>
+        <v>101457.3685373716</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471672</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="C4" t="n">
         <v>367.9287957210698</v>
@@ -26430,34 +26432,34 @@
         <v>367.9287957210698</v>
       </c>
       <c r="G4" t="n">
-        <v>367.9287957210698</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="H4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="I4" t="n">
-        <v>718.1836158884012</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="J4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="K4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="L4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="M4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="N4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="O4" t="n">
-        <v>517.586820413078</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="P4" t="n">
-        <v>367.9287957210699</v>
+        <v>517.5868204130782</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>66382.11269898004</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-129862.6150554092</v>
       </c>
       <c r="C6" t="n">
-        <v>12328.68560430068</v>
+        <v>12328.68560430067</v>
       </c>
       <c r="D6" t="n">
-        <v>12328.68560430068</v>
+        <v>12328.6856043007</v>
       </c>
       <c r="E6" t="n">
-        <v>45956.28560430066</v>
+        <v>45956.28560430071</v>
       </c>
       <c r="F6" t="n">
         <v>45956.28560430068</v>
       </c>
       <c r="G6" t="n">
-        <v>45956.28560430068</v>
+        <v>-6307.918139515976</v>
       </c>
       <c r="H6" t="n">
-        <v>-5267.912202816689</v>
+        <v>60354.85715520076</v>
       </c>
       <c r="I6" t="n">
-        <v>-39151.12265602777</v>
+        <v>60354.85715520074</v>
       </c>
       <c r="J6" t="n">
-        <v>60354.85715520077</v>
+        <v>-50659.6081897894</v>
       </c>
       <c r="K6" t="n">
         <v>60354.85715520076</v>
@@ -26555,13 +26557,13 @@
         <v>60354.85715520076</v>
       </c>
       <c r="N6" t="n">
-        <v>60354.85715520074</v>
+        <v>60354.85715520077</v>
       </c>
       <c r="O6" t="n">
-        <v>60354.85715520074</v>
+        <v>1823.877577884006</v>
       </c>
       <c r="P6" t="n">
-        <v>45956.28560430068</v>
+        <v>60354.85715520077</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>424.2958575201044</v>
@@ -35273,7 +35275,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35334,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="O11" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N12" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,19 +35576,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>409.401749030468</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="O14" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N15" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35811,10 +35813,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N16" t="n">
-        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35893,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N18" t="n">
-        <v>288.7962490401609</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>312.7888501519116</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,22 +36129,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P20" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.515206607857</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O21" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N23" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O23" t="n">
-        <v>210.8113193911195</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1091.811064127961</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="N24" t="n">
-        <v>588.2290989819469</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,25 +36600,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>200.3264657984394</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>667.515206607857</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="N29" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>667.5152066078568</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P30" t="n">
-        <v>345.0097498941943</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>469.682203560008</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697544</v>
@@ -37160,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P33" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37315,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P39" t="n">
-        <v>466.3240083888435</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P41" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.7962490401609</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113936.7948335011</v>
+        <v>108761.0412218679</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23347074.56340345</v>
+        <v>22598784.43994339</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8645685.345390847</v>
+        <v>7912286.19538766</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5013817.615466122</v>
+        <v>5392165.261258152</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>203.1869771812474</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>57.41114660941282</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>151.7936689723505</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>385.3238927773754</v>
       </c>
       <c r="X5" t="n">
-        <v>65.83707489757897</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>106.0626366504663</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>19.08504777700283</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>373.3071698245765</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.2681271316377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>374.0142720497965</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>125.2558025085172</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>213.8263703194803</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>144.0658118104458</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>395.6590476213833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>130.6767931660339</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>303.2656041540824</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>232.2523964141379</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398612</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2052,13 +2052,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>38.03517999061287</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.91568880648689</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170476</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2326,19 +2326,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.826392573249387</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>128.5068288523901</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>159.0870598415706</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>244.7413370440339</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>20.86004827018355</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2794,25 +2794,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>68.12206052868135</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>228.1083531931831</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2955,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>102.8562685532377</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225751</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>268.3727301458093</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.5328199757039</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>47.90525155920239</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120.8505350686153</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>204.4209285083179</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>35.16791248334776</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>400.7212411554626</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>43.77283765622091</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.4124719248395</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>149.4370413361365</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>43.70143389869456</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6903493140397</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>35.16791248334739</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>61.08641542222839</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1628.844660377785</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1266.227710311611</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>861.3722557226442</v>
       </c>
       <c r="X2" t="n">
-        <v>724.4716545351282</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>765.7237088215209</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>593.1619973047458</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>427.2840045062685</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>257.5260007570058</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,10 +4494,10 @@
         <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>851.7801684713901</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X4" t="n">
-        <v>851.7801684713901</v>
+        <v>957.542327540508</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.7801684713901</v>
+        <v>957.542327540508</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.2089295691367</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C5" t="n">
-        <v>863.2089295691367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>863.2089295691367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
         <v>33.94366860160834</v>
@@ -4603,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1307.967376769937</v>
       </c>
       <c r="X5" t="n">
-        <v>863.2089295691367</v>
+        <v>888.8249133492478</v>
       </c>
       <c r="Y5" t="n">
-        <v>863.2089295691367</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M6" t="n">
         <v>739.9048540962709</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C7" t="n">
         <v>33.94366860160834</v>
@@ -4725,16 +4725,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.183430080417</v>
+        <v>1771.628833200794</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.601755817686</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>840.020081554954</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>411.4384072922223</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.183430080417</v>
+        <v>1771.628833200794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.183430080417</v>
+        <v>1771.628833200794</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>437.0247332457074</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>857.0776321906106</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>857.0776321906106</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1277.130531135514</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.6507226398521</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.183430080417</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="C11" t="n">
-        <v>1319.391236090724</v>
+        <v>1179.838987287704</v>
       </c>
       <c r="D11" t="n">
-        <v>890.8095618279922</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2278875652606</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O11" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>1617.981460104281</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D12" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E12" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F12" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S12" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T12" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U12" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V12" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W12" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X12" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y12" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.0776450162207</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C13" t="n">
-        <v>141.0776450162207</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D13" t="n">
-        <v>141.0776450162207</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E13" t="n">
-        <v>141.0776450162207</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I13" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
-        <v>452.1535503695694</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P13" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q13" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>1190.121044077139</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>962.7013733912472</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.9421322372</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="C14" t="n">
-        <v>34.36045797446834</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="D14" t="n">
-        <v>34.36045797446834</v>
+        <v>889.4502244929017</v>
       </c>
       <c r="E14" t="n">
-        <v>34.36045797446834</v>
+        <v>889.4502244929017</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X14" t="n">
-        <v>1297.527826422454</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y14" t="n">
-        <v>889.2417027221078</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D15" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E15" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S15" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T15" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U15" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V15" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W15" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X15" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y15" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>756.2584298497665</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I16" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>648.8602641703441</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C17" t="n">
-        <v>342.5313710854123</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D17" t="n">
-        <v>342.5313710854123</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E17" t="n">
-        <v>342.5313710854123</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F17" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N17" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5545,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355599</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655252</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M18" t="n">
-        <v>394.9608689238807</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N18" t="n">
-        <v>1055.800923465659</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O18" t="n">
-        <v>1716.640978007438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P18" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E19" t="n">
         <v>624.2616690759949</v>
@@ -5670,16 +5670,16 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K19" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M19" t="n">
         <v>1292.433105213328</v>
@@ -5700,25 +5700,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T19" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194209</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862857</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>91.82059025652035</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M20" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2623.681342788512</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2623.681342788512</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2623.681342788512</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>2623.681342788512</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W20" t="n">
-        <v>2623.681342788512</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X20" t="n">
-        <v>2623.681342788512</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
         <v>1599.468199913098</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C22" t="n">
-        <v>590.3333424294657</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D22" t="n">
-        <v>424.4553496309884</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E22" t="n">
-        <v>254.6973458817257</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F22" t="n">
-        <v>77.99029184348186</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5934,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W22" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1758.980365494229</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C23" t="n">
-        <v>1320.837892677653</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D23" t="n">
-        <v>884.9281078520971</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E23" t="n">
-        <v>884.9281078520971</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F23" t="n">
-        <v>457.0606782613049</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G23" t="n">
-        <v>55.66284688456875</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M23" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N23" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6022,19 +6022,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>2586.408952615265</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V23" t="n">
-        <v>2586.408952615265</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W23" t="n">
-        <v>2586.408952615265</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X23" t="n">
-        <v>2167.266489194576</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="Y23" t="n">
-        <v>1758.980365494229</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
         <v>1716.640978007438</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>954.7136726652279</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>794.0196728252577</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1318.576262321712</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.576262321712</v>
+        <v>702.4293090398751</v>
       </c>
       <c r="D26" t="n">
-        <v>882.6664774961569</v>
+        <v>702.4293090398751</v>
       </c>
       <c r="E26" t="n">
-        <v>882.6664774961569</v>
+        <v>702.4293090398751</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>702.4293090398751</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>301.031477663139</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L26" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8819313892767</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N26" t="n">
-        <v>801.8819313892767</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V26" t="n">
-        <v>1744.502472739147</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W26" t="n">
-        <v>1339.647018150181</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X26" t="n">
-        <v>1318.576262321712</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y26" t="n">
-        <v>1318.576262321712</v>
+        <v>1140.571781856452</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K27" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L27" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M27" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N27" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O27" t="n">
-        <v>1175.902039375362</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P27" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1419.763337936864</v>
+        <v>927.8702635436207</v>
       </c>
       <c r="C29" t="n">
-        <v>1419.763337936864</v>
+        <v>489.7277907270441</v>
       </c>
       <c r="D29" t="n">
-        <v>983.8535531113089</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="E29" t="n">
-        <v>550.078808269604</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F29" t="n">
-        <v>122.2113786788117</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M29" t="n">
-        <v>632.7278666362199</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2135.929247515391</v>
       </c>
       <c r="V29" t="n">
-        <v>2670.060826431428</v>
+        <v>1773.312297449218</v>
       </c>
       <c r="W29" t="n">
-        <v>2265.205371842461</v>
+        <v>1773.312297449218</v>
       </c>
       <c r="X29" t="n">
-        <v>1846.062908421772</v>
+        <v>1354.169834028528</v>
       </c>
       <c r="Y29" t="n">
-        <v>1846.062908421772</v>
+        <v>1354.169834028528</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N30" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O30" t="n">
-        <v>515.0619848335834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P30" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
         <v>1716.640978007438</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2479.623634536778</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="C32" t="n">
-        <v>2041.481161720201</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>1605.571376894645</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>1171.796632052941</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
         <v>743.9292024621484</v>
@@ -6694,34 +6694,34 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M32" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N32" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W32" t="n">
-        <v>2670.060826431428</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X32" t="n">
-        <v>2670.060826431428</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y32" t="n">
-        <v>2479.623634536778</v>
+        <v>1015.012768265996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.286808612828</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1427.525098017707</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.105427331815</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>892.9415207219413</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="C35" t="n">
-        <v>454.7990479053647</v>
+        <v>1523.34379808276</v>
       </c>
       <c r="D35" t="n">
-        <v>454.7990479053647</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E35" t="n">
-        <v>454.7990479053647</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N35" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.771296621484</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>1828.15434655531</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W35" t="n">
-        <v>1423.298891966344</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X35" t="n">
-        <v>1423.298891966344</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="Y35" t="n">
-        <v>1015.012768265997</v>
+        <v>1961.486270899337</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M36" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N36" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O36" t="n">
-        <v>515.0619848335834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P36" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7086,13 +7086,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1824.618792525831</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C38" t="n">
-        <v>1386.476319709255</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D38" t="n">
-        <v>950.5665348836992</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E38" t="n">
-        <v>516.7917900419943</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F38" t="n">
-        <v>88.92436045120206</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M38" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N38" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7207,19 +7207,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W38" t="n">
-        <v>2670.060826431428</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X38" t="n">
-        <v>2250.918363010739</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y38" t="n">
-        <v>2250.918363010739</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862857</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R39" t="n">
         <v>1716.640978007438</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.8972536055599</v>
+        <v>877.921435116708</v>
       </c>
       <c r="C40" t="n">
-        <v>731.3355420887848</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D40" t="n">
-        <v>565.4575492903075</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E40" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F40" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.821657388744</v>
+        <v>2625.845838899892</v>
       </c>
       <c r="T40" t="n">
-        <v>2405.942210967199</v>
+        <v>2379.966392478347</v>
       </c>
       <c r="U40" t="n">
-        <v>2127.509210220304</v>
+        <v>2101.533391731452</v>
       </c>
       <c r="V40" t="n">
-        <v>1840.553702090735</v>
+        <v>1814.577883601883</v>
       </c>
       <c r="W40" t="n">
-        <v>1568.527297677026</v>
+        <v>1542.551479188174</v>
       </c>
       <c r="X40" t="n">
-        <v>1323.135543010439</v>
+        <v>1297.159724521587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1095.715872324547</v>
+        <v>1069.740053835695</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M41" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N41" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2190.771296621484</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V41" t="n">
-        <v>2190.771296621484</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W41" t="n">
-        <v>1785.915842032517</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X41" t="n">
-        <v>1366.773378611828</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y41" t="n">
-        <v>958.4872549114813</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862857</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J42" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
         <v>1716.640978007438</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>358.8946658124264</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>744.3459918350084</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C44" t="n">
-        <v>744.3459918350084</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D44" t="n">
-        <v>744.3459918350084</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E44" t="n">
-        <v>744.3459918350084</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F44" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G44" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V44" t="n">
-        <v>2223.792002549092</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="W44" t="n">
-        <v>1818.936547960125</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X44" t="n">
-        <v>1399.794084539436</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y44" t="n">
-        <v>991.5079608390889</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O45" t="n">
-        <v>397.8892067392438</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P45" t="n">
         <v>1058.729261281022</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7812,7 +7812,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
         <v>1292.433105213328</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2608.357376509985</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>2362.477930088441</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>2084.044929341546</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1797.089421211977</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -8142,13 +8142,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>312.7888501519116</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P17" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>321.6407242930886</v>
+      </c>
+      <c r="P18" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O20" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O23" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,16 +10120,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O41" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>347.9676668794093</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P45" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22561,10 +22561,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22603,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>188.9746976505468</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>211.764061605235</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22716,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>117.5288368884485</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.5124713972208</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22795,10 +22795,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22843,13 +22843,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.48300726570159</v>
       </c>
       <c r="X5" t="n">
-        <v>349.1139638889034</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>64.77345775114105</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>414.6760003114081</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50.28158547030785</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23086,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.8773468473951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>59.74677603861437</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>289.6952362779652</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,25 +23418,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>29.11146680044135</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>279.5229434844385</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>19.29199116509909</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>37.38363054573625</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>130.4954439343285</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23785,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>126.7383841513738</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>54.79268646174614</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>248.203673020603</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>36.89966627151447</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>284.4124604379665</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>286.4442099340923</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>11.74903456003676</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>41.49751596718201</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>394.0909905162989</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>329.2617925342874</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>28.52172646297015</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>65.20415515853239</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24919,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>165.3883179426016</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.6704424876392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>122.9308428424049</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.1860397114434</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>227.129758468982</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>362.215940579621</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25447,19 +25447,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>3.482021307880473</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>113.8761173587624</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209.6241028552191</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.1930383200168</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.346225466019</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25924,16 +25924,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>323.8228680821643</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>96.56253959275492</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348586.778930013</v>
+        <v>348586.7789300131</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>348586.7789300132</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348586.7789300132</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348586.7789300132</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490377.2812639625</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490377.2812639625</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490377.2812639625</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490377.2812639626</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490377.2812639626</v>
+        <v>490377.2812639625</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490377.2812639626</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490377.2812639626</v>
+        <v>490377.2812639624</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="C2" t="n">
         <v>72121.40253724411</v>
       </c>
-      <c r="C2" t="n">
-        <v>72121.40253724408</v>
-      </c>
       <c r="D2" t="n">
-        <v>72121.40253724411</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="E2" t="n">
-        <v>72121.40253724412</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="F2" t="n">
-        <v>72121.4025372441</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="G2" t="n">
         <v>101457.3685373715</v>
@@ -26349,13 +26349,13 @@
         <v>101457.3685373715</v>
       </c>
       <c r="N2" t="n">
-        <v>101457.3685373716</v>
+        <v>101457.3685373715</v>
       </c>
       <c r="O2" t="n">
         <v>101457.3685373716</v>
       </c>
       <c r="P2" t="n">
-        <v>101457.3685373716</v>
+        <v>101457.3685373715</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>75551.22640712859</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66662.77529471672</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61556.6282799684</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>58530.97957731679</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>367.9287957210698</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9287957210698</v>
+        <v>517.586820413078</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9287957210698</v>
+        <v>517.586820413078</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9287957210698</v>
+        <v>517.586820413078</v>
       </c>
       <c r="G4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="H4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="I4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="J4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="K4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="L4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="M4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="N4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="O4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="P4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>59424.78813722234</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129862.6150554092</v>
+        <v>-130601.9716673249</v>
       </c>
       <c r="C6" t="n">
-        <v>12328.68560430067</v>
+        <v>11589.32899238504</v>
       </c>
       <c r="D6" t="n">
-        <v>12328.6856043007</v>
+        <v>-49318.85948050911</v>
       </c>
       <c r="E6" t="n">
-        <v>45956.28560430071</v>
+        <v>59859.96692661947</v>
       </c>
       <c r="F6" t="n">
-        <v>45956.28560430068</v>
+        <v>59859.96692661947</v>
       </c>
       <c r="G6" t="n">
-        <v>-6307.918139515976</v>
+        <v>59859.9669266195</v>
       </c>
       <c r="H6" t="n">
-        <v>60354.85715520076</v>
+        <v>59859.96692661948</v>
       </c>
       <c r="I6" t="n">
-        <v>60354.85715520074</v>
+        <v>59859.96692661947</v>
       </c>
       <c r="J6" t="n">
-        <v>-50659.6081897894</v>
+        <v>-51154.49841837073</v>
       </c>
       <c r="K6" t="n">
-        <v>60354.85715520076</v>
+        <v>59859.9669266195</v>
       </c>
       <c r="L6" t="n">
-        <v>60354.85715520074</v>
+        <v>-1696.661353348907</v>
       </c>
       <c r="M6" t="n">
-        <v>60354.85715520076</v>
+        <v>59859.96692661947</v>
       </c>
       <c r="N6" t="n">
-        <v>60354.85715520077</v>
+        <v>59859.96692661948</v>
       </c>
       <c r="O6" t="n">
-        <v>1823.877577884006</v>
+        <v>59859.96692661951</v>
       </c>
       <c r="P6" t="n">
-        <v>60354.85715520077</v>
+        <v>59859.9669266195</v>
       </c>
     </row>
   </sheetData>
@@ -26795,43 +26795,43 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>243.2193490877527</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35184,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>312.7888501519116</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35658,16 +35658,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,13 +35895,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P17" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>321.6407242930886</v>
+      </c>
+      <c r="P18" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36129,22 +36129,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O20" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36366,22 +36366,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O23" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O41" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>347.9676668794093</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P45" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38180,10 +38180,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
